--- a/ind_mortalidad_suicidios.xlsx
+++ b/ind_mortalidad_suicidios.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sum(total)</t>
+          <t>tot_suicidios</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -384,13 +384,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4037</v>
+        <v>367</v>
       </c>
       <c r="C2">
         <v>5274786</v>
       </c>
       <c r="D2">
-        <v>2.525786638547991</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="3">
@@ -398,13 +398,13 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>141443</v>
       </c>
       <c r="D3">
-        <v>94.19330755145182</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="4">
@@ -412,13 +412,13 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>748</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1147482</v>
       </c>
       <c r="D4">
-        <v>11.61062570044672</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="5">
@@ -426,13 +426,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>561</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>385483</v>
       </c>
       <c r="D5">
-        <v>34.56179390530841</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="6">
@@ -440,13 +440,13 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>352</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>427364</v>
       </c>
       <c r="D6">
-        <v>31.17479244859183</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="7">
@@ -454,13 +454,13 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>297</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>191798</v>
       </c>
       <c r="D7">
-        <v>69.46362318689455</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="8">
@@ -468,13 +468,13 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>671</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>438959</v>
       </c>
       <c r="D8">
-        <v>30.35131754901938</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="9">
@@ -482,13 +482,13 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>218064</v>
       </c>
       <c r="D9">
-        <v>61.09666886785531</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="10">
@@ -496,13 +496,13 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>693</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>265407</v>
       </c>
       <c r="D10">
-        <v>50.19831428711375</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="11">
@@ -510,13 +510,13 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>107894</v>
       </c>
       <c r="D11">
-        <v>123.4821584147404</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="12">
@@ -524,13 +524,13 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>133760</v>
       </c>
       <c r="D12">
-        <v>99.60364832535885</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="13">
@@ -538,13 +538,13 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>473</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>620384</v>
       </c>
       <c r="D13">
-        <v>21.47538298860061</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="14">
@@ -552,13 +552,13 @@
         <v>54</v>
       </c>
       <c r="B14">
-        <v>528</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>458182</v>
       </c>
       <c r="D14">
-        <v>29.07792973098027</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="15">
@@ -566,13 +566,13 @@
         <v>58</v>
       </c>
       <c r="B15">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>208212</v>
       </c>
       <c r="D15">
-        <v>63.98758957216683</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="16">
@@ -580,13 +580,13 @@
         <v>62</v>
       </c>
       <c r="B16">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>232574</v>
       </c>
       <c r="D16">
-        <v>57.28492436815809</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="17">
@@ -594,13 +594,13 @@
         <v>66</v>
       </c>
       <c r="B17">
-        <v>1199</v>
+        <v>109</v>
       </c>
       <c r="C17">
         <v>502235</v>
       </c>
       <c r="D17">
-        <v>26.52739056417812</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="18">
@@ -608,13 +608,13 @@
         <v>70</v>
       </c>
       <c r="B18">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>260412</v>
       </c>
       <c r="D18">
-        <v>51.1611753682626</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="19">
@@ -622,13 +622,13 @@
         <v>74</v>
       </c>
       <c r="B19">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>165179</v>
       </c>
       <c r="D19">
-        <v>80.65785602286005</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="20">
@@ -636,13 +636,13 @@
         <v>78</v>
       </c>
       <c r="B20">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>116925</v>
       </c>
       <c r="D20">
-        <v>113.9446995937567</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="21">
@@ -650,13 +650,13 @@
         <v>82</v>
       </c>
       <c r="B21">
-        <v>836</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <v>1051300</v>
       </c>
       <c r="D21">
-        <v>12.67286597545896</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="22">
@@ -664,13 +664,13 @@
         <v>86</v>
       </c>
       <c r="B22">
-        <v>605</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>350754</v>
       </c>
       <c r="D22">
-        <v>37.98384052640882</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="23">
@@ -678,13 +678,13 @@
         <v>90</v>
       </c>
       <c r="B23">
-        <v>1133</v>
+        <v>103</v>
       </c>
       <c r="C23">
         <v>568506</v>
       </c>
       <c r="D23">
-        <v>23.4350807203442</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="24">
@@ -692,13 +692,13 @@
         <v>94</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>55881</v>
       </c>
       <c r="D24">
-        <v>238.4170648342013</v>
+        <v>17.9</v>
       </c>
     </row>
   </sheetData>
